--- a/data_excel/796.xlsx
+++ b/data_excel/796.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>安安</t>
   </si>
@@ -103,13 +103,17 @@
   </si>
   <si>
     <t>78</t>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +128,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,12 +152,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -452,7 +479,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,7 +581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -574,12 +601,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -587,8 +614,8 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>7</v>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
@@ -624,7 +651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -635,12 +662,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
